--- a/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
+++ b/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\demultiplexer2\data\primersets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A269B3BB-21D1-47B5-8532-56E0BFB6D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17526636-723C-4AC3-87EE-B5984DD77FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29595" yWindow="210" windowWidth="15375" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_information" sheetId="1" r:id="rId1"/>
@@ -634,12 +634,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +669,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +960,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
+++ b/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\demultiplexer2\data\primersets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17526636-723C-4AC3-87EE-B5984DD77FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F141798-F0B2-4071-917A-3BE03A77A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="210" windowWidth="15375" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_information" sheetId="1" r:id="rId1"/>

--- a/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
+++ b/demultiplexer2/data/primersets/ssf_its_primerset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\demultiplexer2\data\primersets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F141798-F0B2-4071-917A-3BE03A77A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF22E6-F473-47F3-B6AC-5750F1FB6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
